--- a/Resultados/Resumo_Geral_LM_100ha.xlsx
+++ b/Resultados/Resumo_Geral_LM_100ha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{29D1A075-C06F-4910-B77D-57066B6C28EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EF4A1D-E1C2-4C6C-9041-7963C96DED5D}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{29D1A075-C06F-4910-B77D-57066B6C28EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D1BAC6-B72C-42F3-B389-A8ADC3A9A4C4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2750F72C-0B70-4AAC-A391-7E69A7C02356}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{2750F72C-0B70-4AAC-A391-7E69A7C02356}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico de Séries</a:t>
+              <a:t>LM 100 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -273,10 +273,28 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>field_100ha_100ha_6%_6m_0_LM\</c:v>
+            <c:v>100ha_6%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -421,10 +439,28 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>ield_100ha_100ha_6%_12m_0_LM\</c:v>
+            <c:v>100ha_6%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -603,10 +639,28 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>ield_100ha_100ha_10%_6m_0_LM\</c:v>
+            <c:v>100ha_10%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -751,10 +805,28 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>eld_100ha_100ha_10%_12m_0_LM\</c:v>
+            <c:v>100ha_10%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -933,10 +1005,28 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>ield_100ha_100ha_14%_6m_0_LM\</c:v>
+            <c:v>100ha_14%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1081,10 +1171,28 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>eld_100ha_100ha_14%_12m_0_LM\</c:v>
+            <c:v>100ha_14%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1263,10 +1371,28 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>ield_100ha_100ha_18%_6m_0_LM\</c:v>
+            <c:v>100ha_18%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1411,10 +1537,28 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v/>
+            <c:v>100ha_18%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1574,6 +1718,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Volume de Tanque de Pulverização [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1592,6 +1758,28 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Capacidade Operacional Máxima [ha/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1606,6 +1794,28 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83562574786324784"/>
+          <c:y val="0.16299427083333334"/>
+          <c:w val="0.15623322649572649"/>
+          <c:h val="0.68937916666666665"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1637,10 +1847,10 @@
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1989,10 +2199,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2006,9 +2216,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>36</v>
       </c>
@@ -2024,12 +2234,12 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P20"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2332,7 @@
         <v>1.1392</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2358,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2174,7 +2384,7 @@
         <v>1.3595999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2410,7 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2226,7 +2436,7 @@
         <v>1.4771000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2462,7 @@
         <v>1.5182999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2278,7 +2488,7 @@
         <v>1.5521</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2514,7 @@
         <v>1.5788</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2330,7 +2540,7 @@
         <v>1.6012</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2356,7 +2566,7 @@
         <v>1.6215000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2592,7 @@
         <v>1.6362000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2408,7 +2618,7 @@
         <v>1.6506999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2644,7 @@
         <v>1.6645000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2460,7 +2670,7 @@
         <v>1.6740999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2486,7 +2696,7 @@
         <v>1.6862000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2512,7 +2722,7 @@
         <v>1.6927000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2538,7 +2748,7 @@
         <v>1.7006000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2575,12 +2785,12 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M20"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2644,7 +2854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2673,7 +2883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2699,7 +2909,7 @@
         <v>1.8082</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2935,7 @@
         <v>1.9959</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2751,7 +2961,7 @@
         <v>2.1427999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +2987,7 @@
         <v>2.2591999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2803,7 +3013,7 @@
         <v>2.3576000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2829,7 +3039,7 @@
         <v>2.4386000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2855,7 +3065,7 @@
         <v>2.5063</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2881,7 +3091,7 @@
         <v>2.5627</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2907,7 +3117,7 @@
         <v>2.6124999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2933,7 +3143,7 @@
         <v>2.6555</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +3169,7 @@
         <v>2.6930999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2985,7 +3195,7 @@
         <v>2.7279</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3011,7 +3221,7 @@
         <v>2.7519</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3037,7 +3247,7 @@
         <v>2.7855000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3063,7 +3273,7 @@
         <v>2.8048999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3089,7 +3299,7 @@
         <v>2.8256000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3129,9 +3339,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3198,7 +3408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3224,7 +3434,7 @@
         <v>1.5925</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3250,7 +3460,7 @@
         <v>1.6762999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3276,7 +3486,7 @@
         <v>1.7282999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3302,7 +3512,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3328,7 +3538,7 @@
         <v>1.7917000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3354,7 +3564,7 @@
         <v>1.8129999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3380,7 +3590,7 @@
         <v>1.8262</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3406,7 +3616,7 @@
         <v>1.8385</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3432,7 +3642,7 @@
         <v>1.8488</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3458,7 +3668,7 @@
         <v>1.8554999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3484,7 +3694,7 @@
         <v>1.8621000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3510,7 +3720,7 @@
         <v>1.8688999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3536,7 +3746,7 @@
         <v>1.8725999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3562,7 +3772,7 @@
         <v>1.8747</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3588,7 +3798,7 @@
         <v>1.881</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3614,7 +3824,7 @@
         <v>1.8805000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3640,7 +3850,7 @@
         <v>1.8828</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3680,9 +3890,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3749,7 +3959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3775,7 +3985,7 @@
         <v>2.5373999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3801,7 +4011,7 @@
         <v>2.7610000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3827,7 +4037,7 @@
         <v>2.9074</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3853,7 +4063,7 @@
         <v>3.0070999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3879,7 +4089,7 @@
         <v>3.0847000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3905,7 +4115,7 @@
         <v>3.1486000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3931,7 +4141,7 @@
         <v>3.1949000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3957,7 +4167,7 @@
         <v>3.2317</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3983,7 +4193,7 @@
         <v>3.2614999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4009,7 +4219,7 @@
         <v>3.2795000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4035,7 +4245,7 @@
         <v>3.3075000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4061,7 +4271,7 @@
         <v>3.3237000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4087,7 +4297,7 @@
         <v>3.3298000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4113,7 +4323,7 @@
         <v>3.3492000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4139,7 +4349,7 @@
         <v>3.3975</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4165,7 +4375,7 @@
         <v>3.3624000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4191,7 +4401,7 @@
         <v>3.3658000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4229,9 +4439,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>30</v>
       </c>
@@ -4250,9 +4460,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4319,7 +4529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4345,7 +4555,7 @@
         <v>1.3969</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4371,7 +4581,7 @@
         <v>1.5079</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4397,7 +4607,7 @@
         <v>1.5793999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4423,7 +4633,7 @@
         <v>1.6284999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4449,7 +4659,7 @@
         <v>1.6660999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4475,7 +4685,7 @@
         <v>1.6975</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4501,7 +4711,7 @@
         <v>1.7203999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4527,7 +4737,7 @@
         <v>1.7396</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4553,7 +4763,7 @@
         <v>1.7534999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4579,7 +4789,7 @@
         <v>1.7661000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4605,7 +4815,7 @@
         <v>1.7819</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4631,7 +4841,7 @@
         <v>1.7845</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4657,7 +4867,7 @@
         <v>1.7927999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4683,7 +4893,7 @@
         <v>1.8022999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4709,7 +4919,7 @@
         <v>1.8044</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4735,7 +4945,7 @@
         <v>1.8095000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4761,7 +4971,7 @@
         <v>1.8124</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4801,9 +5011,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4835,7 +5045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4870,7 +5080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4896,7 +5106,7 @@
         <v>2.0794999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4922,7 +5132,7 @@
         <v>2.3315000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4948,7 +5158,7 @@
         <v>2.5066000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4974,7 +5184,7 @@
         <v>2.6335000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5000,7 +5210,7 @@
         <v>2.7349000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5026,7 +5236,7 @@
         <v>2.8184999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5052,7 +5262,7 @@
         <v>2.8822999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5078,7 +5288,7 @@
         <v>2.9350000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +5314,7 @@
         <v>2.9767000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5130,7 +5340,7 @@
         <v>3.0137</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5366,7 @@
         <v>3.0396000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5182,7 +5392,7 @@
         <v>3.0811000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5208,7 +5418,7 @@
         <v>3.0931000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5234,7 +5444,7 @@
         <v>3.1128999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5260,7 +5470,7 @@
         <v>3.1263999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5286,7 +5496,7 @@
         <v>3.1436000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5312,7 +5522,7 @@
         <v>3.1528999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5350,9 +5560,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>33</v>
       </c>
@@ -5371,9 +5581,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5405,7 +5615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5440,7 +5650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5466,7 +5676,7 @@
         <v>1.2516</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5492,7 +5702,7 @@
         <v>1.3769999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5518,7 +5728,7 @@
         <v>1.4584999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5544,7 +5754,7 @@
         <v>1.5176000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5570,7 +5780,7 @@
         <v>1.5644999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5596,7 +5806,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5622,7 +5832,7 @@
         <v>1.6294999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5648,7 +5858,7 @@
         <v>1.6531</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5674,7 +5884,7 @@
         <v>1.6738999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5700,7 +5910,7 @@
         <v>1.6896</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5726,7 +5936,7 @@
         <v>1.7033</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5752,7 +5962,7 @@
         <v>1.7149000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5778,7 +5988,7 @@
         <v>1.7246999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5804,7 +6014,7 @@
         <v>1.7336</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5830,7 +6040,7 @@
         <v>1.7435</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5856,7 +6066,7 @@
         <v>1.7502000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5882,7 +6092,7 @@
         <v>1.7488999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5922,9 +6132,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5956,7 +6166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5991,7 +6201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6017,7 +6227,7 @@
         <v>1.7736000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6043,7 +6253,7 @@
         <v>2.0312999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6069,7 +6279,7 @@
         <v>2.2185999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6095,7 +6305,7 @@
         <v>2.3563000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6121,7 +6331,7 @@
         <v>2.4704000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6147,7 +6357,7 @@
         <v>2.5628000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6173,7 +6383,7 @@
         <v>2.6366999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6199,7 +6409,7 @@
         <v>2.6970999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6225,7 +6435,7 @@
         <v>2.7518000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6251,7 +6461,7 @@
         <v>2.7945000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6277,7 +6487,7 @@
         <v>2.8361000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6303,7 +6513,7 @@
         <v>2.8689</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6329,7 +6539,7 @@
         <v>2.8921999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6355,7 +6565,7 @@
         <v>2.9200999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6381,7 +6591,7 @@
         <v>2.9419</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6407,7 +6617,7 @@
         <v>2.9577</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6433,7 +6643,7 @@
         <v>2.9889999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
